--- a/data/emotion_data_hand_craft.csv.xlsx
+++ b/data/emotion_data_hand_craft.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fd\Desktop\emotion_thearpy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AF1FE2-C048-44A7-9975-80F2BBA4AD0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBEF2A9-1277-4234-9E9A-9EF202B9A2D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8070" yWindow="4050" windowWidth="28800" windowHeight="17235" xr2:uid="{57588E42-D46D-4078-B394-FCD470C74C4D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>감정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,66 +39,395 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>음미, 향유, 만끽, 즐거움, 감사, 행복, 소중, 축복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우울</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>행동, 긍정, 구명, 도움, 회복, 예방, 생활, 관점, 극복, 가족, 삶, 활동, 목표, 치료, 명상</t>
-  </si>
-  <si>
     <t>슬픔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사랑, 극복, 회복, 도움, 시간, 표현, 행복, 기억, 활동, 목표, 영양, 운동, 복원</t>
-  </si>
-  <si>
     <t>열정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상기, 부스터, 에너지, 시도, 집중, 노력, 몰입, 초점, 용기</t>
-  </si>
-  <si>
     <t>분노</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정지, 통제, 회피, 인정, 자기관찰, 낙천적, 대처, 마음챙김, 호흡, 고요함, 평화로움</t>
-  </si>
-  <si>
     <t>두려움</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동기부여, 신호, 직면, 변화, 재구성, 휴식, 수면, 분석, 대화, 치료제, 상담, 차단제, 진정</t>
-  </si>
-  <si>
-    <t>음미, 향유, 즐거움, 감사, 행복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사랑, 극복, 도움, 시간, 표현, 활동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상기, 부스터, 집중, 노력, 몰입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정지, 회피, 낙천적, 대처, 마음챙김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직면, 변화,  대화, 상담,  진정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행동, 도움, 생활, 치료, 명상</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행동 도움 생활</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>치료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명상</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사랑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도움</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가족</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간 활동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몰입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>휴식</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회피</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>긍정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호흡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직면, 변화, 대화, 집중, 용기</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낙관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>느낌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생각 즐기</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +450,26 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,8 +494,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087A1C30-3137-428F-9012-711D2F5A4C25}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="K20:L20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -483,104 +838,48 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
